--- a/public/files/Template_Sales_New_2024_New.xlsx
+++ b/public/files/Template_Sales_New_2024_New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templete 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F701B7-7142-4365-8B3D-061C71764B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3B346-BB75-4B30-A5FE-AF9C5CC08D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,19 +364,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -393,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,29 +400,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Koma" xfId="1" builtinId="3"/>
@@ -759,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,29 +824,53 @@
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10">
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>1</v>
+      </c>
+      <c r="K2" s="19">
+        <v>1</v>
+      </c>
+      <c r="L2" s="19">
+        <v>1</v>
+      </c>
+      <c r="M2" s="19">
+        <v>1</v>
+      </c>
+      <c r="N2" s="19">
+        <v>1</v>
+      </c>
+      <c r="O2" s="19">
+        <v>1</v>
+      </c>
+      <c r="P2" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
         <f>SUM(E2:J2)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
+        <v>6</v>
+      </c>
+      <c r="R2" s="9">
         <f>SUM(K2:P2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
+        <v>6</v>
+      </c>
+      <c r="S2" s="10">
         <f>Q2+R2</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -883,29 +886,53 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="10">
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
         <f t="shared" ref="Q3:Q22" si="0">SUM(E3:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
+        <v>6</v>
+      </c>
+      <c r="R3" s="9">
         <f t="shared" ref="R3:R22" si="1">SUM(K3:P3)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
+        <v>6</v>
+      </c>
+      <c r="S3" s="10">
         <f t="shared" ref="S3:S22" si="2">Q3+R3</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -921,29 +948,53 @@
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10">
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
+        <v>6</v>
+      </c>
+      <c r="R4" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
+        <v>6</v>
+      </c>
+      <c r="S4" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -959,29 +1010,53 @@
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10">
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1</v>
+      </c>
+      <c r="O5" s="19">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
+        <v>6</v>
+      </c>
+      <c r="R5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
+        <v>6</v>
+      </c>
+      <c r="S5" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -997,29 +1072,53 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10">
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
+        <v>6</v>
+      </c>
+      <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
+        <v>6</v>
+      </c>
+      <c r="S6" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1035,105 +1134,177 @@
       <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="10">
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19">
+        <v>1</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
+        <v>6</v>
+      </c>
+      <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
+        <v>6</v>
+      </c>
+      <c r="S7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16">
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
+      <c r="O8" s="19">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
+        <v>6</v>
+      </c>
+      <c r="R8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="17">
+        <v>6</v>
+      </c>
+      <c r="S8" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>4111000101</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="16">
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>1</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
+        <v>6</v>
+      </c>
+      <c r="R9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="17">
+        <v>6</v>
+      </c>
+      <c r="S9" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1149,29 +1320,53 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10">
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
+        <v>1</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1</v>
+      </c>
+      <c r="O10" s="19">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
+        <v>6</v>
+      </c>
+      <c r="S10" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1187,29 +1382,53 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="10">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
+        <v>1</v>
+      </c>
+      <c r="M11" s="19">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
+      <c r="O11" s="19">
+        <v>1</v>
+      </c>
+      <c r="P11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10">
+        <v>6</v>
+      </c>
+      <c r="R11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
+        <v>6</v>
+      </c>
+      <c r="S11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1225,29 +1444,53 @@
       <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10">
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1</v>
+      </c>
+      <c r="O12" s="19">
+        <v>1</v>
+      </c>
+      <c r="P12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10">
+        <v>6</v>
+      </c>
+      <c r="R12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
+        <v>6</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1263,29 +1506,53 @@
       <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="10">
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
+      <c r="N13" s="19">
+        <v>1</v>
+      </c>
+      <c r="O13" s="19">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10">
+        <v>6</v>
+      </c>
+      <c r="R13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
+        <v>6</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1301,105 +1568,177 @@
       <c r="D14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10">
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19">
+        <v>1</v>
+      </c>
+      <c r="O14" s="19">
+        <v>1</v>
+      </c>
+      <c r="P14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10">
+        <v>6</v>
+      </c>
+      <c r="R14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
+        <v>6</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="16">
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19">
+        <v>1</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1</v>
+      </c>
+      <c r="P15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
+        <v>6</v>
+      </c>
+      <c r="R15" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="17">
+        <v>6</v>
+      </c>
+      <c r="S15" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>4111000101</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16">
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19">
+        <v>1</v>
+      </c>
+      <c r="O16" s="19">
+        <v>1</v>
+      </c>
+      <c r="P16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="16">
+        <v>6</v>
+      </c>
+      <c r="R16" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="17">
+        <v>6</v>
+      </c>
+      <c r="S16" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1415,29 +1754,53 @@
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="10">
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
+        <v>1</v>
+      </c>
+      <c r="O17" s="19">
+        <v>1</v>
+      </c>
+      <c r="P17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="10">
+        <v>6</v>
+      </c>
+      <c r="R17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="11">
+        <v>6</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1453,29 +1816,53 @@
       <c r="D18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="10">
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
+      <c r="N18" s="19">
+        <v>1</v>
+      </c>
+      <c r="O18" s="19">
+        <v>1</v>
+      </c>
+      <c r="P18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
+        <v>6</v>
+      </c>
+      <c r="R18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
+        <v>6</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1491,29 +1878,53 @@
       <c r="D19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="10">
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="10">
+        <v>6</v>
+      </c>
+      <c r="R19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="11">
+        <v>6</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1529,29 +1940,53 @@
       <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10">
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19">
+        <v>1</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19">
+        <v>1</v>
+      </c>
+      <c r="O20" s="19">
+        <v>1</v>
+      </c>
+      <c r="P20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="10">
+        <v>6</v>
+      </c>
+      <c r="R20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11">
+        <v>6</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1567,67 +2002,115 @@
       <c r="D21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="10">
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1</v>
+      </c>
+      <c r="N21" s="19">
+        <v>1</v>
+      </c>
+      <c r="O21" s="19">
+        <v>1</v>
+      </c>
+      <c r="P21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="10">
+        <v>6</v>
+      </c>
+      <c r="R21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="11">
+        <v>6</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23">
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1</v>
+      </c>
+      <c r="L22" s="19">
+        <v>1</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1</v>
+      </c>
+      <c r="N22" s="19">
+        <v>1</v>
+      </c>
+      <c r="O22" s="19">
+        <v>1</v>
+      </c>
+      <c r="P22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="23">
+        <v>6</v>
+      </c>
+      <c r="R22" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="24">
+        <v>6</v>
+      </c>
+      <c r="S22" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">

--- a/public/files/Template_Sales_New_2024_New.xlsx
+++ b/public/files/Template_Sales_New_2024_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templete 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3B346-BB75-4B30-A5FE-AF9C5CC08D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8ECA5-BD51-442B-BAD6-008B382B6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,50 +827,28 @@
       <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="19">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19">
-        <v>1</v>
-      </c>
-      <c r="J2" s="19">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19">
-        <v>1</v>
-      </c>
-      <c r="L2" s="19">
-        <v>1</v>
-      </c>
-      <c r="M2" s="19">
-        <v>1</v>
-      </c>
-      <c r="N2" s="19">
-        <v>1</v>
-      </c>
-      <c r="O2" s="19">
-        <v>1</v>
-      </c>
-      <c r="P2" s="19">
-        <v>1</v>
-      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="9">
         <f>SUM(E2:J2)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" s="9">
         <f>SUM(K2:P2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S2" s="10">
         <f>Q2+R2</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -886,53 +864,29 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="19">
-        <v>1</v>
-      </c>
-      <c r="K3" s="19">
-        <v>1</v>
-      </c>
-      <c r="L3" s="19">
-        <v>1</v>
-      </c>
-      <c r="M3" s="19">
-        <v>1</v>
-      </c>
-      <c r="N3" s="19">
-        <v>1</v>
-      </c>
-      <c r="O3" s="19">
-        <v>1</v>
-      </c>
-      <c r="P3" s="19">
-        <v>1</v>
-      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="9">
         <f t="shared" ref="Q3:Q22" si="0">SUM(E3:J3)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R3" s="9">
         <f t="shared" ref="R3:R22" si="1">SUM(K3:P3)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10">
         <f t="shared" ref="S3:S22" si="2">Q3+R3</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -948,53 +902,29 @@
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="19">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19">
-        <v>1</v>
-      </c>
-      <c r="M4" s="19">
-        <v>1</v>
-      </c>
-      <c r="N4" s="19">
-        <v>1</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1</v>
-      </c>
-      <c r="P4" s="19">
-        <v>1</v>
-      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -1010,53 +940,29 @@
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19">
-        <v>1</v>
-      </c>
-      <c r="N5" s="19">
-        <v>1</v>
-      </c>
-      <c r="O5" s="19">
-        <v>1</v>
-      </c>
-      <c r="P5" s="19">
-        <v>1</v>
-      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1072,53 +978,29 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
-        <v>1</v>
-      </c>
-      <c r="M6" s="19">
-        <v>1</v>
-      </c>
-      <c r="N6" s="19">
-        <v>1</v>
-      </c>
-      <c r="O6" s="19">
-        <v>1</v>
-      </c>
-      <c r="P6" s="19">
-        <v>1</v>
-      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1134,53 +1016,29 @@
       <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>1</v>
-      </c>
-      <c r="N7" s="19">
-        <v>1</v>
-      </c>
-      <c r="O7" s="19">
-        <v>1</v>
-      </c>
-      <c r="P7" s="19">
-        <v>1</v>
-      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1196,53 +1054,29 @@
       <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="19">
-        <v>1</v>
-      </c>
-      <c r="M8" s="19">
-        <v>1</v>
-      </c>
-      <c r="N8" s="19">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19">
-        <v>1</v>
-      </c>
-      <c r="P8" s="19">
-        <v>1</v>
-      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R8" s="13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1258,53 +1092,29 @@
       <c r="D9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>1</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
-        <v>1</v>
-      </c>
-      <c r="P9" s="19">
-        <v>1</v>
-      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R9" s="13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1320,53 +1130,29 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1</v>
-      </c>
-      <c r="L10" s="19">
-        <v>1</v>
-      </c>
-      <c r="M10" s="19">
-        <v>1</v>
-      </c>
-      <c r="N10" s="19">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19">
-        <v>1</v>
-      </c>
-      <c r="P10" s="19">
-        <v>1</v>
-      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1382,53 +1168,29 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
-        <v>1</v>
-      </c>
-      <c r="M11" s="19">
-        <v>1</v>
-      </c>
-      <c r="N11" s="19">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
-        <v>1</v>
-      </c>
-      <c r="P11" s="19">
-        <v>1</v>
-      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1444,53 +1206,29 @@
       <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19">
-        <v>1</v>
-      </c>
-      <c r="M12" s="19">
-        <v>1</v>
-      </c>
-      <c r="N12" s="19">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19">
-        <v>1</v>
-      </c>
-      <c r="P12" s="19">
-        <v>1</v>
-      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
       <c r="Q12" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1506,53 +1244,29 @@
       <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
-        <v>1</v>
-      </c>
-      <c r="M13" s="19">
-        <v>1</v>
-      </c>
-      <c r="N13" s="19">
-        <v>1</v>
-      </c>
-      <c r="O13" s="19">
-        <v>1</v>
-      </c>
-      <c r="P13" s="19">
-        <v>1</v>
-      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1568,53 +1282,29 @@
       <c r="D14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="19">
-        <v>1</v>
-      </c>
-      <c r="L14" s="19">
-        <v>1</v>
-      </c>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="19">
-        <v>1</v>
-      </c>
-      <c r="O14" s="19">
-        <v>1</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1</v>
-      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S14" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1630,53 +1320,29 @@
       <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-      <c r="L15" s="19">
-        <v>1</v>
-      </c>
-      <c r="M15" s="19">
-        <v>1</v>
-      </c>
-      <c r="N15" s="19">
-        <v>1</v>
-      </c>
-      <c r="O15" s="19">
-        <v>1</v>
-      </c>
-      <c r="P15" s="19">
-        <v>1</v>
-      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1692,53 +1358,29 @@
       <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>1</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1</v>
-      </c>
-      <c r="L16" s="19">
-        <v>1</v>
-      </c>
-      <c r="M16" s="19">
-        <v>1</v>
-      </c>
-      <c r="N16" s="19">
-        <v>1</v>
-      </c>
-      <c r="O16" s="19">
-        <v>1</v>
-      </c>
-      <c r="P16" s="19">
-        <v>1</v>
-      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1754,53 +1396,29 @@
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-      <c r="L17" s="19">
-        <v>1</v>
-      </c>
-      <c r="M17" s="19">
-        <v>1</v>
-      </c>
-      <c r="N17" s="19">
-        <v>1</v>
-      </c>
-      <c r="O17" s="19">
-        <v>1</v>
-      </c>
-      <c r="P17" s="19">
-        <v>1</v>
-      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1816,53 +1434,29 @@
       <c r="D18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
-        <v>1</v>
-      </c>
-      <c r="M18" s="19">
-        <v>1</v>
-      </c>
-      <c r="N18" s="19">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19">
-        <v>1</v>
-      </c>
-      <c r="P18" s="19">
-        <v>1</v>
-      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1878,53 +1472,29 @@
       <c r="D19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="19">
-        <v>1</v>
-      </c>
-      <c r="N19" s="19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="19">
-        <v>1</v>
-      </c>
-      <c r="P19" s="19">
-        <v>1</v>
-      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1940,53 +1510,29 @@
       <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
-        <v>1</v>
-      </c>
-      <c r="M20" s="19">
-        <v>1</v>
-      </c>
-      <c r="N20" s="19">
-        <v>1</v>
-      </c>
-      <c r="O20" s="19">
-        <v>1</v>
-      </c>
-      <c r="P20" s="19">
-        <v>1</v>
-      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2002,53 +1548,29 @@
       <c r="D21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19">
-        <v>1</v>
-      </c>
-      <c r="K21" s="19">
-        <v>1</v>
-      </c>
-      <c r="L21" s="19">
-        <v>1</v>
-      </c>
-      <c r="M21" s="19">
-        <v>1</v>
-      </c>
-      <c r="N21" s="19">
-        <v>1</v>
-      </c>
-      <c r="O21" s="19">
-        <v>1</v>
-      </c>
-      <c r="P21" s="19">
-        <v>1</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2064,53 +1586,29 @@
       <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
-        <v>1</v>
-      </c>
-      <c r="M22" s="19">
-        <v>1</v>
-      </c>
-      <c r="N22" s="19">
-        <v>1</v>
-      </c>
-      <c r="O22" s="19">
-        <v>1</v>
-      </c>
-      <c r="P22" s="19">
-        <v>1</v>
-      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S22" s="18">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">

--- a/public/files/Template_Sales_New_2024_New.xlsx
+++ b/public/files/Template_Sales_New_2024_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templte 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8ECA5-BD51-442B-BAD6-008B382B6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E7875-9365-4D16-A111-DB4C2E8CB246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Raw Data Sales'!$A$1:$F$253</definedName>
-    <definedName name="TableSLS">Sales!$A$1:$P$22</definedName>
+    <definedName name="TableSLS">Sales!$B$1:$Q$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="49">
   <si>
     <t>ACC CODE</t>
   </si>
@@ -191,6 +191,12 @@
   <si>
     <t>Value</t>
   </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>MKT1</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -364,6 +370,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -380,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,21 +419,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Koma" xfId="1" builtinId="3"/>
@@ -736,883 +763,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="16" width="14.26953125" customWidth="1"/>
-    <col min="17" max="19" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="17" width="14.26953125" customWidth="1"/>
+    <col min="18" max="20" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <v>45383</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <v>45413</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <v>45444</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>45474</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <v>45505</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <v>45536</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <v>45566</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <v>45597</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <v>45627</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <v>45658</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <v>45689</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <v>45717</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7">
         <v>4111000101</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19">
+      <c r="F2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="9">
-        <f>SUM(E2:J2)</f>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10">
+        <f>SUM(F2:K2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="9">
-        <f>SUM(K2:P2)</f>
+      <c r="S2" s="10">
+        <f>SUM(L2:Q2)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="10">
-        <f>Q2+R2</f>
+      <c r="T2" s="11">
+        <f>R2+S2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q22" si="0">SUM(E3:J3)</f>
+      <c r="F3" s="26"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R22" si="0">SUM(F3:K3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R22" si="1">SUM(K3:P3)</f>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S22" si="1">SUM(L3:Q3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="10">
-        <f t="shared" ref="S3:S22" si="2">Q3+R3</f>
+      <c r="T3" s="11">
+        <f t="shared" ref="T3:T22" si="2">R3+S3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="9">
+      <c r="F4" s="25"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="9">
+      <c r="S4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4" s="10">
+      <c r="T4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="9">
+      <c r="F5" s="26"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="9">
+      <c r="F6" s="25"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="9">
+      <c r="F7" s="26"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="13">
+      <c r="F8" s="27"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="13">
+      <c r="S8" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8" s="14">
+      <c r="T8" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="13">
         <v>4111000101</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="13">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="13">
+      <c r="S9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="14">
+      <c r="T9" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="9">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="9">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="9">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="9">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="9">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="13">
+      <c r="F15" s="12"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="13">
+      <c r="S15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="14">
+      <c r="T15" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13">
         <v>4111000101</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="13">
+      <c r="F16" s="9"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="13">
+      <c r="S16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S16" s="14">
+      <c r="T16" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="9">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="9">
+      <c r="S17" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="9">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="9">
+      <c r="S18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="9">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="9">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="9">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="9">
+      <c r="S21" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="17">
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22" s="17">
+      <c r="S22" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="18">
+      <c r="T22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1624,9 +1716,9 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E24" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1638,9 +1730,9 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E25" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1652,9 +1744,9 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E26" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1666,9 +1758,9 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E27" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1680,9 +1772,9 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E28" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1694,9 +1786,9 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E29" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1708,9 +1800,9 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E30" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1722,9 +1814,9 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E31" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1736,9 +1828,9 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E32" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1750,9 +1842,9 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E33" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1764,9 +1856,9 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E34" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1778,9 +1870,9 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E35" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1792,9 +1884,9 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E36" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1806,9 +1898,9 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E37" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1820,9 +1912,9 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E38" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1834,9 +1926,9 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E39" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1848,9 +1940,9 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E40" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1862,9 +1954,9 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E41" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1876,9 +1968,9 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E42" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1890,9 +1982,9 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E43" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1904,9 +1996,9 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E44" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1918,9 +2010,9 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E45" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1932,9 +2024,9 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E46" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1946,9 +2038,9 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E47" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1960,9 +2052,9 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E48" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1974,9 +2066,9 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E49" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1988,9 +2080,9 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E50" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2002,9 +2094,9 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E51" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2016,9 +2108,9 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E52" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2030,9 +2122,9 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E53" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2044,9 +2136,9 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E54" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2058,9 +2150,9 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E55" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2072,9 +2164,9 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E56" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2086,9 +2178,9 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E57" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2100,9 +2192,9 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E58" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2114,9 +2206,9 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E59" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2128,9 +2220,9 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E60" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2142,9 +2234,9 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E61" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2156,9 +2248,9 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E62" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2170,9 +2262,9 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E63" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2184,9 +2276,9 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E64" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2198,9 +2290,9 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E65" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2212,9 +2304,9 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E66" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2226,9 +2318,9 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E67" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2240,9 +2332,9 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E68" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2254,9 +2346,9 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E69" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2268,9 +2360,9 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E70" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2282,9 +2374,9 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E71" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2296,9 +2388,9 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E72" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2310,9 +2402,9 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E73" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -2324,9 +2416,9 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E74" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2338,9 +2430,9 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E75" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -2352,9 +2444,9 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E76" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2366,9 +2458,9 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E77" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2380,9 +2472,9 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E78" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2394,9 +2486,9 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E79" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2408,9 +2500,9 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E80" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2422,9 +2514,9 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E81" s="2"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2436,9 +2528,9 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E82" s="2"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2450,9 +2542,9 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E83" s="2"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2464,9 +2556,9 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E84" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -2478,9 +2570,9 @@
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E85" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -2492,9 +2584,9 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E86" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2506,9 +2598,9 @@
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E87" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -2520,12 +2612,13 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="A23:XFD111" name="OPEN 2"/>
-    <protectedRange sqref="E1:P1048576" name="OPEN 1"/>
+    <protectedRange sqref="F1:Q1048576" name="OPEN 1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/public/files/Template_Sales_New_2024_New.xlsx
+++ b/public/files/Template_Sales_New_2024_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templte 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fabian\00_Project\cubic_pro\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E7875-9365-4D16-A111-DB4C2E8CB246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAAE836-47EB-44E3-B877-0420E7594E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -174,15 +174,6 @@
     <t>SAL0036</t>
   </si>
   <si>
-    <t>FY 2024 1st</t>
-  </si>
-  <si>
-    <t>FY 2024 2nd</t>
-  </si>
-  <si>
-    <t>FY 2024 TOTAL</t>
-  </si>
-  <si>
     <t>4111000101</t>
   </si>
   <si>
@@ -196,6 +187,15 @@
   </si>
   <si>
     <t>MKT1</t>
+  </si>
+  <si>
+    <t>FY 2025 1st</t>
+  </si>
+  <si>
+    <t>FY 2025 2nd</t>
+  </si>
+  <si>
+    <t>FY 2025 TOTAL</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -766,7 +766,7 @@
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,7 +781,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -796,54 +796,54 @@
         <v>3</v>
       </c>
       <c r="F1" s="5">
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="G1" s="5">
-        <v>45413</v>
+        <v>45778</v>
       </c>
       <c r="H1" s="5">
-        <v>45444</v>
+        <v>45809</v>
       </c>
       <c r="I1" s="5">
-        <v>45474</v>
+        <v>45839</v>
       </c>
       <c r="J1" s="5">
-        <v>45505</v>
+        <v>45870</v>
       </c>
       <c r="K1" s="5">
-        <v>45536</v>
+        <v>45901</v>
       </c>
       <c r="L1" s="5">
-        <v>45566</v>
+        <v>45931</v>
       </c>
       <c r="M1" s="5">
-        <v>45597</v>
+        <v>45962</v>
       </c>
       <c r="N1" s="5">
-        <v>45627</v>
+        <v>45992</v>
       </c>
       <c r="O1" s="5">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="P1" s="5">
-        <v>45689</v>
+        <v>46054</v>
       </c>
       <c r="Q1" s="5">
-        <v>45717</v>
+        <v>46082</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7">
         <v>4111000101</v>
@@ -857,9 +857,7 @@
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25">
-        <v>1</v>
-      </c>
+      <c r="F2" s="25"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -873,7 +871,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="10">
         <f>SUM(F2:K2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="10">
         <f>SUM(L2:Q2)</f>
@@ -881,12 +879,12 @@
       </c>
       <c r="T2" s="11">
         <f>R2+S2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
@@ -927,7 +925,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>10</v>
@@ -968,7 +966,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -1009,7 +1007,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
@@ -1050,7 +1048,7 @@
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
@@ -1091,7 +1089,7 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>22</v>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="13">
         <v>4111000101</v>
@@ -1173,7 +1171,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
@@ -1214,7 +1212,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>10</v>
@@ -1255,7 +1253,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -1296,7 +1294,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>16</v>
@@ -1337,7 +1335,7 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -1378,7 +1376,7 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>22</v>
@@ -1419,7 +1417,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13">
         <v>4111000101</v>
@@ -1460,7 +1458,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
@@ -1501,7 +1499,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>10</v>
@@ -1542,7 +1540,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>13</v>
@@ -1583,7 +1581,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>16</v>
@@ -1624,7 +1622,7 @@
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>19</v>
@@ -1665,7 +1663,7 @@
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
@@ -2645,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2660,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2668,7 +2666,7 @@
         <v>45383</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2688,7 +2686,7 @@
         <v>45413</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2708,7 +2706,7 @@
         <v>45444</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2728,7 +2726,7 @@
         <v>45474</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2748,7 +2746,7 @@
         <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2768,7 +2766,7 @@
         <v>45536</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2788,7 +2786,7 @@
         <v>45566</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2808,7 +2806,7 @@
         <v>45597</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2828,7 +2826,7 @@
         <v>45627</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2848,7 +2846,7 @@
         <v>45658</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2868,7 +2866,7 @@
         <v>45689</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2888,7 +2886,7 @@
         <v>45717</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4348,7 +4346,7 @@
         <v>45383</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -4368,7 +4366,7 @@
         <v>45413</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -4388,7 +4386,7 @@
         <v>45444</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -4408,7 +4406,7 @@
         <v>45474</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -4428,7 +4426,7 @@
         <v>45505</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -4448,7 +4446,7 @@
         <v>45536</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -4468,7 +4466,7 @@
         <v>45566</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -4488,7 +4486,7 @@
         <v>45597</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -4508,7 +4506,7 @@
         <v>45627</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -4528,7 +4526,7 @@
         <v>45658</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -4548,7 +4546,7 @@
         <v>45689</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -4568,7 +4566,7 @@
         <v>45717</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -6028,7 +6026,7 @@
         <v>45383</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -6048,7 +6046,7 @@
         <v>45413</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -6068,7 +6066,7 @@
         <v>45444</v>
       </c>
       <c r="B172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -6088,7 +6086,7 @@
         <v>45474</v>
       </c>
       <c r="B173" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -6108,7 +6106,7 @@
         <v>45505</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -6128,7 +6126,7 @@
         <v>45536</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -6148,7 +6146,7 @@
         <v>45566</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -6168,7 +6166,7 @@
         <v>45597</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -6188,7 +6186,7 @@
         <v>45627</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -6208,7 +6206,7 @@
         <v>45658</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -6228,7 +6226,7 @@
         <v>45689</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -6248,7 +6246,7 @@
         <v>45717</v>
       </c>
       <c r="B181" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
